--- a/aimir-web/src/main/webapp/template/BulkCreatingCustomerTemplate.xlsx
+++ b/aimir-web/src/main/webapp/template/BulkCreatingCustomerTemplate.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
     <sheet name="RreDefind" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>TARIFFTYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,18 +27,10 @@
     <t>Commerce</t>
   </si>
   <si>
-    <t>USER NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20210303155900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mr.Han</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,50 +43,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P12009156</t>
+    <t>Residence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclairage Public</t>
+  </si>
+  <si>
+    <t>Organisme Public</t>
+  </si>
+  <si>
+    <t>Organisme Autonome</t>
+  </si>
+  <si>
+    <t>EDH Employee</t>
+  </si>
+  <si>
+    <t>UserAddress2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAddress3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrears2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAddress1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeterNumber
+(Unique)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrears1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractDate
+(yyyymmddhhmmss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TariffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractNumber
+(Unique, Within 50 characters)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digicel </t>
+  </si>
+  <si>
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER ADDRESS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER ADDRESS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER ADDRESS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARREARS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT NUMBER
-(Unique, Within 50 characters)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACT DATE
-(yyyymmddhhmmss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>METER NUMBER
-(Unique)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUSTOMERNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,13 +209,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +247,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -213,9 +263,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -484,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -495,33 +542,36 @@
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="30.09765625" customWidth="1"/>
     <col min="6" max="6" width="23.69921875" customWidth="1"/>
     <col min="7" max="7" width="25.3984375" customWidth="1"/>
     <col min="8" max="8" width="23.796875" customWidth="1"/>
     <col min="9" max="9" width="22.3984375" customWidth="1"/>
     <col min="10" max="10" width="18.8984375" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>12</v>
@@ -536,42 +586,54 @@
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
+      <c r="M1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>11878867</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="I2" s="6">
         <v>50936034111</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
+      <c r="J2" s="6">
+        <v>810884530</v>
       </c>
       <c r="K2" s="6">
         <v>20</v>
+      </c>
+      <c r="L2" s="6">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -580,12 +642,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>RreDefind!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>RreDefind!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>RreDefind!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -595,35 +669,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aimir-web/src/main/webapp/template/BulkCreatingCustomerTemplate.xlsx
+++ b/aimir-web/src/main/webapp/template/BulkCreatingCustomerTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>TARIFFTYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreviousMeter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -548,13 +552,13 @@
     <col min="7" max="7" width="25.3984375" customWidth="1"/>
     <col min="8" max="8" width="23.796875" customWidth="1"/>
     <col min="9" max="9" width="22.3984375" customWidth="1"/>
-    <col min="10" max="10" width="18.8984375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" customWidth="1"/>
+    <col min="10" max="11" width="18.8984375" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -586,16 +590,19 @@
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -624,15 +631,16 @@
         <v>50936034111</v>
       </c>
       <c r="J2" s="6">
-        <v>810884530</v>
-      </c>
-      <c r="K2" s="6">
-        <v>20</v>
-      </c>
+        <v>81088453011</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6">
         <v>20</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="6">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -653,7 +661,7 @@
           <x14:formula1>
             <xm:f>RreDefind!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2</xm:sqref>
+          <xm:sqref>N2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/aimir-web/src/main/webapp/template/BulkCreatingCustomerTemplate.xlsx
+++ b/aimir-web/src/main/webapp/template/BulkCreatingCustomerTemplate.xlsx
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arrears2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CustomerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arrears1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ContractDate
 (yyyymmddhhmmss)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,42 +93,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CustomerNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContractNumber
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digicel </t>
+  </si>
+  <si>
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreviousMeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIB
 (Unique, Within 50 characters)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natcom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digicel </t>
-  </si>
-  <si>
-    <t>SMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCustomer1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreviousMeter</t>
+    <t>NIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrears A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrears B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -225,10 +232,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -259,8 +267,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,9 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -560,22 +567,22 @@
   <sheetData>
     <row r="1" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>12</v>
@@ -584,27 +591,27 @@
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -613,10 +620,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -641,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -702,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -710,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
